--- a/data/trans_camb/POLIPATOLOGIA_2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 11,28</t>
+          <t>-2,16; 11,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 12,62</t>
+          <t>-0,4; 13,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 16,93</t>
+          <t>2,79; 17,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 23,03</t>
+          <t>7,14; 24,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 23,38</t>
+          <t>8,22; 24,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 14,91</t>
+          <t>-0,45; 14,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 15,42</t>
+          <t>5,28; 15,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 16,32</t>
+          <t>5,4; 16,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,67</t>
+          <t>3,84; 14,34</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 74,49</t>
+          <t>-10,83; 78,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 82,93</t>
+          <t>-1,93; 94,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 114,29</t>
+          <t>11,49; 110,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 104,78</t>
+          <t>23,25; 110,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 109,95</t>
+          <t>27,96; 113,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 70,07</t>
+          <t>-1,36; 65,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,9; 80,37</t>
+          <t>21,96; 84,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 84,86</t>
+          <t>22,66; 86,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 71,64</t>
+          <t>16,08; 75,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 8,47</t>
+          <t>-2,34; 7,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 8,52</t>
+          <t>-1,61; 8,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 13,43</t>
+          <t>1,91; 13,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,27</t>
+          <t>-12,04; 0,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 1,29</t>
+          <t>-11,07; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 5,15</t>
+          <t>-6,07; 5,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,18</t>
+          <t>-5,68; 2,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,75</t>
+          <t>-4,93; 3,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,68</t>
+          <t>-0,98; 7,33</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 53,07</t>
+          <t>-11,38; 49,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 53,08</t>
+          <t>-7,79; 53,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 82,65</t>
+          <t>8,67; 84,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 0,77</t>
+          <t>-27,27; 1,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 3,07</t>
+          <t>-26,07; 4,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 13,72</t>
+          <t>-13,91; 14,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 11,68</t>
+          <t>-17,89; 10,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 13,41</t>
+          <t>-15,81; 12,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 28,29</t>
+          <t>-3,42; 26,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 17,45</t>
+          <t>4,86; 17,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 8,74</t>
+          <t>-3,14; 8,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,52; 25,76</t>
+          <t>12,42; 25,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 13,21</t>
+          <t>-2,04; 13,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 7,96</t>
+          <t>-5,66; 8,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 22,91</t>
+          <t>9,79; 22,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,84</t>
+          <t>3,3; 13,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 7,08</t>
+          <t>-2,21; 7,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,55; 22,51</t>
+          <t>12,94; 22,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,48; 128,14</t>
+          <t>26,02; 127,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 68,13</t>
+          <t>-16,6; 63,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,42; 199,27</t>
+          <t>61,36; 191,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 48,25</t>
+          <t>-5,97; 47,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 28,76</t>
+          <t>-17,16; 32,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,83; 84,77</t>
+          <t>29,15; 88,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,68; 64,4</t>
+          <t>12,93; 60,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 33,29</t>
+          <t>-9,06; 32,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47,26; 106,96</t>
+          <t>49,05; 104,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 9,1</t>
+          <t>-3,47; 9,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 14,82</t>
+          <t>1,87; 15,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 23,58</t>
+          <t>7,99; 22,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 20,51</t>
+          <t>6,48; 20,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 19,43</t>
+          <t>5,46; 19,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 41,09</t>
+          <t>9,79; 42,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,35</t>
+          <t>3,6; 13,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 14,8</t>
+          <t>5,16; 14,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,49; 35,19</t>
+          <t>12,38; 36,8</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 53,58</t>
+          <t>-14,37; 53,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,78; 82,92</t>
+          <t>7,29; 82,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,25; 129,27</t>
+          <t>33,46; 126,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,38; 74,55</t>
+          <t>19,32; 74,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,76; 70,23</t>
+          <t>16,16; 70,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,98; 148,43</t>
+          <t>30,71; 157,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,27; 56,08</t>
+          <t>13,11; 54,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>18,27; 62,24</t>
+          <t>18,39; 61,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,61; 141,1</t>
+          <t>46,25; 149,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,56; 24,09</t>
+          <t>7,74; 23,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 17,2</t>
+          <t>2,74; 17,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,93; 27,75</t>
+          <t>12,77; 27,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,26; 37,45</t>
+          <t>19,21; 38,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 19,26</t>
+          <t>0,82; 19,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 26,13</t>
+          <t>-9,91; 25,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,24; 28,24</t>
+          <t>15,56; 28,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,1; 16,06</t>
+          <t>4,45; 15,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,28; 25,44</t>
+          <t>4,3; 25,07</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>46,38; 241,74</t>
+          <t>46,23; 250,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,56; 195,27</t>
+          <t>15,19; 180,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>69,54; 293,31</t>
+          <t>74,45; 300,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>55,72; 154,66</t>
+          <t>54,74; 153,29</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,29; 77,79</t>
+          <t>2,61; 74,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 92,6</t>
+          <t>-22,57; 89,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>59,88; 153,44</t>
+          <t>61,49; 152,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,39; 88,1</t>
+          <t>17,31; 83,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,32; 137,26</t>
+          <t>21,96; 126,3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,92; 21,33</t>
+          <t>7,58; 21,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 12,27</t>
+          <t>-2,58; 11,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,52; 32,05</t>
+          <t>17,72; 31,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,84; 17,6</t>
+          <t>1,78; 17,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 7,16</t>
+          <t>-9,29; 6,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,33; 20,69</t>
+          <t>6,21; 21,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,51</t>
+          <t>7,07; 17,69</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,92</t>
+          <t>-2,99; 7,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13,97; 23,92</t>
+          <t>13,77; 24,2</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,37; 143,91</t>
+          <t>36,11; 147,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 85,31</t>
+          <t>-11,75; 76,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>77,14; 214,92</t>
+          <t>80,65; 212,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,72; 55,75</t>
+          <t>4,29; 55,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 22,39</t>
+          <t>-23,86; 22,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,05; 66,75</t>
+          <t>14,98; 68,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,45; 72,39</t>
+          <t>22,92; 72,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 32,4</t>
+          <t>-10,5; 32,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>46,14; 98,64</t>
+          <t>46,65; 99,95</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,4; 12,36</t>
+          <t>2,6; 12,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,94</t>
+          <t>-2,44; 6,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,84</t>
+          <t>15,1; 26,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,42</t>
+          <t>4,87; 14,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 7,54</t>
+          <t>-2,76; 7,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>30,1; 56,61</t>
+          <t>30,71; 57,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,27</t>
+          <t>4,85; 12,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,04</t>
+          <t>-1,11; 5,93</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,79; 50,52</t>
+          <t>25,0; 51,04</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11,65; 73,61</t>
+          <t>12,5; 74,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 39,97</t>
+          <t>-10,53; 39,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>68,09; 152,43</t>
+          <t>69,06; 156,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13,22; 56,86</t>
+          <t>15,41; 54,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 27,96</t>
+          <t>-7,92; 29,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>96,71; 208,52</t>
+          <t>98,96; 212,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>19,38; 54,87</t>
+          <t>18,05; 51,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 26,1</t>
+          <t>-3,99; 26,03</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>97,27; 219,65</t>
+          <t>96,6; 214,31</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,26; -1,42</t>
+          <t>-10,06; -1,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 6,05</t>
+          <t>-3,04; 6,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 3,6</t>
+          <t>-19,2; 3,79</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -2,6</t>
+          <t>-12,14; -2,81</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,22</t>
+          <t>-6,61; 3,6</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 5,12</t>
+          <t>-4,17; 5,35</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -3,06</t>
+          <t>-9,51; -3,09</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,03</t>
+          <t>-3,53; 3,43</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 2,67</t>
+          <t>-13,79; 2,31</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-37,24; -6,06</t>
+          <t>-36,74; -5,36</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 26,36</t>
+          <t>-11,65; 27,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,38; 15,03</t>
+          <t>-68,23; 15,48</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -7,65</t>
+          <t>-30,73; -8,29</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 9,46</t>
+          <t>-16,81; 10,42</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 14,73</t>
+          <t>-10,43; 15,6</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-28,25; -10,19</t>
+          <t>-28,76; -10,44</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 10,29</t>
+          <t>-10,57; 11,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 8,94</t>
+          <t>-43,74; 7,45</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,59</t>
+          <t>2,52; 6,68</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,13</t>
+          <t>2,05; 6,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,52; 13,91</t>
+          <t>4,45; 13,78</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,43</t>
+          <t>2,9; 7,54</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,94</t>
+          <t>0,15; 4,86</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>11,44; 24,85</t>
+          <t>11,28; 25,1</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,49</t>
+          <t>3,25; 6,41</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,94</t>
+          <t>1,8; 4,84</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,92</t>
+          <t>9,57; 19,1</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,53</t>
+          <t>11,93; 35,01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>9,23; 32,23</t>
+          <t>10,27; 32,93</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>17,59; 72,01</t>
+          <t>23,42; 71,63</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,34; 23,05</t>
+          <t>8,1; 23,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>0,22; 15,09</t>
+          <t>0,5; 15,04</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>33,86; 73,98</t>
+          <t>32,79; 74,1</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>11,78; 24,8</t>
+          <t>11,51; 24,46</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,93; 19,13</t>
+          <t>6,54; 18,65</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>35,18; 72,2</t>
+          <t>35,07; 71,72</t>
         </is>
       </c>
     </row>
